--- a/LRN.ExcelGenerator/TemplateFiles/Collection_Template.xlsx
+++ b/LRN.ExcelGenerator/TemplateFiles/Collection_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\source\repos\LabRevenueNavigator\LRN.ExcelGenerator\TemplateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\source\Files\TemplatePath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE7C73F-04E9-434B-B13F-56C7A7EE13D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0416C1FB-F13B-40FA-9AF3-0BBEBFEC37C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5E47FCA-9F92-4141-8D7E-BE69D6742C56}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>AMD Visit #</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Payment Posted Date</t>
+  </si>
+  <si>
+    <t>TestType</t>
+  </si>
+  <si>
+    <t>ClinicName</t>
+  </si>
+  <si>
+    <t>PanelGroup</t>
   </si>
 </sst>
 </file>
@@ -588,62 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C03CD7F-B978-4A5D-991A-EE0341B31901}">
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" customWidth="1"/>
-    <col min="21" max="21" width="12.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,123 +631,132 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
